--- a/3gram/Result v2.xlsx
+++ b/3gram/Result v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\experiment\3gram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\DoYourJob\3gram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C93" sqref="A87:D104"/>
+      <selection activeCell="A87" sqref="A87:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,28 +473,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.90529999999999999</v>
+        <v>0.84909999999999997</v>
       </c>
       <c r="C4" s="3">
-        <v>0.91669999999999996</v>
+        <v>0.83120000000000005</v>
       </c>
       <c r="D4" s="3">
-        <v>0.91100000000000003</v>
+        <v>0.84009999999999996</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K20" si="0">(B4+B25+B46+B67+B88)/5</f>
-        <v>0.87382000000000004</v>
+        <v>0.89124000000000003</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L20" si="1">(C4+C25+C46+C67+C88)/5</f>
-        <v>0.87195999999999996</v>
+        <v>0.88468000000000002</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M20" si="2">(D4+D25+D46+D67+D88)/5</f>
-        <v>0.87287999999999999</v>
+        <v>0.88789999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -515,15 +515,15 @@
       </c>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
-        <v>0.98000000000000009</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="1"/>
-        <v>0.94363999999999992</v>
+        <v>0.95</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="2"/>
-        <v>0.96</v>
+        <v>0.97141999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -531,28 +531,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>0.85709999999999997</v>
+        <v>0.73680000000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>0.66669999999999996</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="D6" s="3">
-        <v>0.75</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
-        <v>0.78534000000000004</v>
+        <v>0.82910000000000006</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="1"/>
-        <v>0.63668000000000002</v>
+        <v>0.69569999999999987</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="2"/>
-        <v>0.69422000000000006</v>
+        <v>0.7279199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -563,25 +563,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>0.9677</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>0.99353999999999998</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="1"/>
-        <v>0.97970000000000002</v>
+        <v>0.97643999999999986</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="2"/>
-        <v>0.98628000000000005</v>
+        <v>0.98797999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -589,28 +589,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.92110000000000003</v>
+        <v>0.9667</v>
       </c>
       <c r="C8" s="3">
-        <v>0.85370000000000001</v>
+        <v>0.8286</v>
       </c>
       <c r="D8" s="3">
-        <v>0.8861</v>
+        <v>0.89229999999999998</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
-        <v>0.93322000000000005</v>
+        <v>0.95604</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>0.83418000000000014</v>
+        <v>0.84814000000000012</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="2"/>
-        <v>0.88008000000000008</v>
+        <v>0.89825999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -621,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>8</v>
@@ -635,11 +635,11 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.66666000000000003</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="2"/>
-        <v>0.81333999999999995</v>
+        <v>0.76668000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -647,28 +647,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0.86670000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="C10" s="3">
-        <v>0.8</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="D10" s="3">
-        <v>0.83199999999999996</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>0.88103999999999993</v>
+        <v>0.92077999999999993</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>0.78527999999999998</v>
+        <v>0.82896000000000014</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="2"/>
-        <v>0.82959999999999989</v>
+        <v>0.87227999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -676,28 +676,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>0.94740000000000002</v>
+        <v>0.84209999999999996</v>
       </c>
       <c r="C11" s="3">
-        <v>0.67920000000000003</v>
+        <v>0.82050000000000001</v>
       </c>
       <c r="D11" s="3">
-        <v>0.79120000000000001</v>
+        <v>0.83120000000000005</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="0"/>
-        <v>0.8529199999999999</v>
+        <v>0.86502000000000001</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="1"/>
-        <v>0.71519999999999995</v>
+        <v>0.74586000000000008</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="2"/>
-        <v>0.77564</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -705,28 +705,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>0.84</v>
+        <v>0.8851</v>
       </c>
       <c r="C12" s="3">
-        <v>0.92649999999999999</v>
+        <v>0.80210000000000004</v>
       </c>
       <c r="D12" s="3">
-        <v>0.88109999999999999</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="0"/>
-        <v>0.85741999999999996</v>
+        <v>0.88375999999999999</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="1"/>
-        <v>0.84011999999999998</v>
+        <v>0.82387999999999995</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="2"/>
-        <v>0.84755999999999998</v>
+        <v>0.85201999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -734,28 +734,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>0.94259999999999999</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="C13" s="3">
-        <v>0.94010000000000005</v>
+        <v>0.92290000000000005</v>
       </c>
       <c r="D13" s="3">
-        <v>0.94130000000000003</v>
+        <v>0.93010000000000004</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="0"/>
-        <v>0.94294000000000011</v>
+        <v>0.94464000000000004</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="1"/>
-        <v>0.93415999999999999</v>
+        <v>0.93206000000000011</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>0.9385</v>
+        <v>0.93829999999999991</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -766,25 +766,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="0"/>
-        <v>0.95518000000000003</v>
+        <v>0.95578000000000007</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>0.95665999999999995</v>
+        <v>0.96064000000000005</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>0.95540000000000003</v>
+        <v>0.95708000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>0.80769999999999997</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>0.89359999999999995</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>14</v>
@@ -809,11 +809,11 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="1"/>
-        <v>0.93925999999999998</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="2"/>
-        <v>0.9672599999999999</v>
+        <v>0.99591999999999992</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>0.8</v>
+        <v>0.1429</v>
       </c>
       <c r="D16" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
@@ -838,11 +838,11 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="1"/>
-        <v>0.47714000000000001</v>
+        <v>0.6047800000000001</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="2"/>
-        <v>0.61665999999999999</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -853,25 +853,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
-        <v>0.97141999999999995</v>
+        <v>0.73333999999999999</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="1"/>
-        <v>0.85333999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="2"/>
-        <v>0.90117999999999987</v>
+        <v>0.64206000000000008</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -879,28 +879,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0.95920000000000005</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="C18" s="3">
-        <v>0.95140000000000002</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D18" s="3">
-        <v>0.95530000000000004</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="0"/>
-        <v>0.97006000000000014</v>
+        <v>0.97496000000000005</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="1"/>
-        <v>0.96053999999999995</v>
+        <v>0.96717999999999993</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="2"/>
-        <v>0.96523999999999999</v>
+        <v>0.97104000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -908,28 +908,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>0.98040000000000005</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>0.98040000000000005</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>0.98040000000000005</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="0"/>
-        <v>0.97510000000000008</v>
+        <v>0.96709999999999996</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="1"/>
-        <v>0.95774000000000004</v>
+        <v>0.96545999999999987</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="2"/>
-        <v>0.96614</v>
+        <v>0.96622000000000008</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -937,28 +937,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>0.93269999999999997</v>
+        <v>0.91910000000000003</v>
       </c>
       <c r="C20" s="3">
-        <v>0.91349999999999998</v>
+        <v>0.88959999999999995</v>
       </c>
       <c r="D20" s="3">
-        <v>0.92300000000000004</v>
+        <v>0.90410000000000001</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="0"/>
-        <v>0.92477999999999994</v>
+        <v>0.93515999999999999</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="1"/>
-        <v>0.89702000000000004</v>
+        <v>0.90532000000000001</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="2"/>
-        <v>0.91067999999999993</v>
+        <v>0.91998000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -982,13 +982,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.86829999999999996</v>
+        <v>0.90380000000000005</v>
       </c>
       <c r="C25" s="1">
-        <v>0.86480000000000001</v>
+        <v>0.89259999999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>0.86650000000000005</v>
+        <v>0.89810000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -996,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1010,13 +1010,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>0.70589999999999997</v>
+        <v>0.8125</v>
       </c>
       <c r="C27" s="1">
-        <v>0.85709999999999997</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="D27" s="1">
-        <v>0.7742</v>
+        <v>0.86670000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1027,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>0.9355</v>
+        <v>0.96</v>
       </c>
       <c r="D28" s="1">
-        <v>0.9667</v>
+        <v>0.97960000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1038,13 +1038,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>0.90910000000000002</v>
+        <v>0.9375</v>
       </c>
       <c r="C29" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.88239999999999996</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.89549999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>0.86960000000000004</v>
+        <v>0.93879999999999997</v>
       </c>
       <c r="C31" s="1">
-        <v>0.74070000000000003</v>
+        <v>0.82140000000000002</v>
       </c>
       <c r="D31" s="1">
-        <v>0.8</v>
+        <v>0.87619999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>0.84850000000000003</v>
+        <v>0.93020000000000003</v>
       </c>
       <c r="C32" s="1">
-        <v>0.6512</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="D32" s="1">
-        <v>0.73680000000000001</v>
+        <v>0.81630000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,13 +1094,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>0.82179999999999997</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="C33" s="1">
-        <v>0.77569999999999995</v>
+        <v>0.89290000000000003</v>
       </c>
       <c r="D33" s="1">
-        <v>0.79810000000000003</v>
+        <v>0.87719999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,13 +1108,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>0.95420000000000005</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="C34" s="1">
-        <v>0.94399999999999995</v>
+        <v>0.93989999999999996</v>
       </c>
       <c r="D34" s="1">
-        <v>0.94910000000000005</v>
+        <v>0.94359999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0.9355</v>
       </c>
       <c r="C35" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.9667</v>
       </c>
       <c r="D35" s="1">
-        <v>0.96550000000000002</v>
+        <v>0.95079999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>0.94120000000000004</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>0.96970000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>0.5</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="D37" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.83330000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1">
-        <v>0.95650000000000002</v>
+        <v>0.97640000000000005</v>
       </c>
       <c r="C39" s="1">
-        <v>0.96409999999999996</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="D39" s="1">
-        <v>0.96030000000000004</v>
+        <v>0.96689999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B40" s="1">
-        <v>0.94920000000000004</v>
+        <v>0.96230000000000004</v>
       </c>
       <c r="C40" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.94440000000000002</v>
       </c>
       <c r="D40" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.95330000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>0.91910000000000003</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="C41" s="1">
-        <v>0.89270000000000005</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="D41" s="1">
-        <v>0.90569999999999995</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,13 +1236,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.89800000000000002</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="C46" s="1">
-        <v>0.89449999999999996</v>
+        <v>0.92910000000000004</v>
       </c>
       <c r="D46" s="1">
-        <v>0.89629999999999999</v>
+        <v>0.92369999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>0.81820000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="D47" s="1">
-        <v>0.9</v>
+        <v>0.85709999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,13 +1264,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="1">
-        <v>0.90910000000000002</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="C48" s="1">
-        <v>0.58819999999999995</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="D48" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.47620000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,13 +1278,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>0.9677</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <v>0.98360000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>0.91180000000000005</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>0.79490000000000005</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="D50" s="1">
-        <v>0.84930000000000005</v>
+        <v>0.93149999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,13 +1320,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>0.86539999999999995</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="C52" s="1">
-        <v>0.80359999999999998</v>
+        <v>0.83050000000000002</v>
       </c>
       <c r="D52" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.85960000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,13 +1334,13 @@
         <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>0.8095</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>0.72340000000000004</v>
+        <v>0.76190000000000002</v>
       </c>
       <c r="D53" s="1">
-        <v>0.76400000000000001</v>
+        <v>0.82050000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1348,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>0.8851</v>
+        <v>0.875</v>
       </c>
       <c r="C54" s="1">
-        <v>0.79379999999999995</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="D54" s="1">
-        <v>0.83699999999999997</v>
+        <v>0.8508</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,13 +1362,13 @@
         <v>12</v>
       </c>
       <c r="B55" s="1">
-        <v>0.93300000000000005</v>
+        <v>0.94269999999999998</v>
       </c>
       <c r="C55" s="1">
-        <v>0.92110000000000003</v>
+        <v>0.91879999999999995</v>
       </c>
       <c r="D55" s="1">
-        <v>0.92700000000000005</v>
+        <v>0.93059999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1376,13 @@
         <v>13</v>
       </c>
       <c r="B56" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>0.94740000000000002</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
-        <v>0.97299999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>0.33329999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1418,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>0.57140000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="1">
-        <v>0.98350000000000004</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>0.95199999999999996</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="D60" s="1">
-        <v>0.96750000000000003</v>
+        <v>0.98570000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,10 +1449,10 @@
         <v>0.94589999999999996</v>
       </c>
       <c r="C61" s="1">
-        <v>0.875</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="D61" s="1">
-        <v>0.90910000000000002</v>
+        <v>0.95889999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,13 +1460,13 @@
         <v>19</v>
       </c>
       <c r="B62" s="1">
-        <v>0.92679999999999996</v>
+        <v>0.94369999999999998</v>
       </c>
       <c r="C62" s="1">
-        <v>0.88790000000000002</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="D62" s="1">
-        <v>0.90690000000000004</v>
+        <v>0.92779999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,13 +1490,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.83399999999999996</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="C67" s="1">
-        <v>0.83399999999999996</v>
+        <v>0.85960000000000003</v>
       </c>
       <c r="D67" s="1">
-        <v>0.83399999999999996</v>
+        <v>0.86319999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="1">
-        <v>0.72729999999999995</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="C69" s="1">
-        <v>0.57140000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D69" s="1">
-        <v>0.64</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>0.96299999999999997</v>
+        <v>0.95450000000000002</v>
       </c>
       <c r="D70" s="1">
-        <v>0.98109999999999997</v>
+        <v>0.97670000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="1">
-        <v>0.95350000000000001</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="C71" s="1">
-        <v>0.85419999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="D71" s="1">
-        <v>0.90110000000000001</v>
+        <v>0.86750000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>0.25</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="D72" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,13 +1574,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="1">
-        <v>0.92589999999999995</v>
+        <v>0.92190000000000005</v>
       </c>
       <c r="C73" s="1">
-        <v>0.87719999999999998</v>
+        <v>0.85509999999999997</v>
       </c>
       <c r="D73" s="1">
-        <v>0.90090000000000003</v>
+        <v>0.88719999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="1">
-        <v>0.82050000000000001</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="C74" s="1">
-        <v>0.8</v>
+        <v>0.68630000000000002</v>
       </c>
       <c r="D74" s="1">
-        <v>0.81010000000000004</v>
+        <v>0.73680000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="B75" s="1">
-        <v>0.87060000000000004</v>
+        <v>0.89229999999999998</v>
       </c>
       <c r="C75" s="1">
-        <v>0.82220000000000004</v>
+        <v>0.79449999999999998</v>
       </c>
       <c r="D75" s="1">
-        <v>0.84570000000000001</v>
+        <v>0.84060000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,13 +1616,13 @@
         <v>12</v>
       </c>
       <c r="B76" s="1">
-        <v>0.95899999999999996</v>
+        <v>0.9375</v>
       </c>
       <c r="C76" s="1">
-        <v>0.95409999999999995</v>
+        <v>0.9375</v>
       </c>
       <c r="D76" s="1">
-        <v>0.95650000000000002</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,13 +1630,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1">
-        <v>0.92589999999999995</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>0.96150000000000002</v>
+        <v>0.94120000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>0.97960000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D79" s="1">
-        <v>0.44440000000000002</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D80" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,13 +1686,13 @@
         <v>17</v>
       </c>
       <c r="B81" s="1">
-        <v>0.97519999999999996</v>
+        <v>0.97619999999999996</v>
       </c>
       <c r="C81" s="1">
-        <v>0.95930000000000004</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="D81" s="1">
-        <v>0.96719999999999995</v>
+        <v>0.98009999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,13 +1700,13 @@
         <v>18</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>0.92730000000000001</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>0.91069999999999995</v>
       </c>
       <c r="D82" s="1">
-        <v>1</v>
+        <v>0.91890000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,13 +1714,13 @@
         <v>19</v>
       </c>
       <c r="B83" s="1">
-        <v>0.92390000000000005</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="C83" s="1">
-        <v>0.90229999999999999</v>
+        <v>0.89419999999999999</v>
       </c>
       <c r="D83" s="1">
-        <v>0.91300000000000003</v>
+        <v>0.90990000000000004</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,13 +1744,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="1">
-        <v>0.86350000000000005</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="C88" s="1">
-        <v>0.8498</v>
+        <v>0.91090000000000004</v>
       </c>
       <c r="D88" s="1">
-        <v>0.85660000000000003</v>
+        <v>0.91439999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="1">
-        <v>0.72729999999999995</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="C90" s="1">
-        <v>0.5</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="D90" s="1">
-        <v>0.59260000000000002</v>
+        <v>0.78569999999999995</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,13 +1800,13 @@
         <v>7</v>
       </c>
       <c r="B92" s="1">
-        <v>0.97060000000000002</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="C92" s="1">
-        <v>0.78569999999999995</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D92" s="1">
-        <v>0.86839999999999995</v>
+        <v>0.91759999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D93" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,13 +1828,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="1">
-        <v>0.87760000000000005</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="C94" s="1">
-        <v>0.70489999999999997</v>
+        <v>0.86</v>
       </c>
       <c r="D94" s="1">
-        <v>0.78180000000000005</v>
+        <v>0.91490000000000005</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="B95" s="1">
-        <v>0.8387</v>
+        <v>0.86839999999999995</v>
       </c>
       <c r="C95" s="1">
-        <v>0.72219999999999995</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="D95" s="1">
-        <v>0.77610000000000001</v>
+        <v>0.79520000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,13 +1856,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="1">
-        <v>0.86960000000000004</v>
+        <v>0.90429999999999999</v>
       </c>
       <c r="C96" s="1">
-        <v>0.88239999999999996</v>
+        <v>0.80189999999999995</v>
       </c>
       <c r="D96" s="1">
-        <v>0.87590000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,13 +1870,13 @@
         <v>12</v>
       </c>
       <c r="B97" s="1">
-        <v>0.92589999999999995</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="C97" s="1">
-        <v>0.91149999999999998</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="D97" s="1">
-        <v>0.91859999999999997</v>
+        <v>0.94969999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1884,13 +1884,13 @@
         <v>13</v>
       </c>
       <c r="B98" s="1">
-        <v>0.95</v>
+        <v>0.95450000000000002</v>
       </c>
       <c r="C98" s="1">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="D98" s="1">
-        <v>0.95</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>0.6</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D100" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,13 +1926,13 @@
         <v>16</v>
       </c>
       <c r="B101" s="1">
-        <v>0.85709999999999997</v>
+        <v>0</v>
       </c>
       <c r="C101" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
-        <v>0.70589999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,13 +1940,13 @@
         <v>17</v>
       </c>
       <c r="B102" s="1">
-        <v>0.97589999999999999</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="C102" s="1">
-        <v>0.97589999999999999</v>
+        <v>0.9647</v>
       </c>
       <c r="D102" s="1">
-        <v>0.97589999999999999</v>
+        <v>0.96850000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,13 +1968,13 @@
         <v>19</v>
       </c>
       <c r="B104" s="1">
-        <v>0.9214</v>
+        <v>0.94789999999999996</v>
       </c>
       <c r="C104" s="1">
-        <v>0.88870000000000005</v>
+        <v>0.91490000000000005</v>
       </c>
       <c r="D104" s="1">
-        <v>0.90480000000000005</v>
+        <v>0.93110000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/3gram/Result v2.xlsx
+++ b/3gram/Result v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\DoYourJob\3gram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\experiment\3gram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:D104"/>
+      <selection activeCell="C93" sqref="A87:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,28 +473,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.84909999999999997</v>
+        <v>0.90529999999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>0.83120000000000005</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="D4" s="3">
-        <v>0.84009999999999996</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K20" si="0">(B4+B25+B46+B67+B88)/5</f>
-        <v>0.89124000000000003</v>
+        <v>0.87382000000000004</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L20" si="1">(C4+C25+C46+C67+C88)/5</f>
-        <v>0.88468000000000002</v>
+        <v>0.87195999999999996</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M20" si="2">(D4+D25+D46+D67+D88)/5</f>
-        <v>0.88789999999999991</v>
+        <v>0.87287999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -515,15 +515,15 @@
       </c>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.94363999999999992</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="2"/>
-        <v>0.97141999999999995</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -531,28 +531,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>0.73680000000000001</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="C6" s="3">
-        <v>0.93330000000000002</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D6" s="3">
-        <v>0.82350000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
-        <v>0.82910000000000006</v>
+        <v>0.78534000000000004</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="1"/>
-        <v>0.69569999999999987</v>
+        <v>0.63668000000000002</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="2"/>
-        <v>0.7279199999999999</v>
+        <v>0.69422000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -563,25 +563,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>0.9677</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>0.98360000000000003</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99353999999999998</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="1"/>
-        <v>0.97643999999999986</v>
+        <v>0.97970000000000002</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="2"/>
-        <v>0.98797999999999997</v>
+        <v>0.98628000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -589,28 +589,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.9667</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="C8" s="3">
-        <v>0.8286</v>
+        <v>0.85370000000000001</v>
       </c>
       <c r="D8" s="3">
-        <v>0.89229999999999998</v>
+        <v>0.8861</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
-        <v>0.95604</v>
+        <v>0.93322000000000005</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>0.84814000000000012</v>
+        <v>0.83418000000000014</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="2"/>
-        <v>0.89825999999999995</v>
+        <v>0.88008000000000008</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -621,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>8</v>
@@ -635,11 +635,11 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="1"/>
-        <v>0.66666000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="2"/>
-        <v>0.76668000000000003</v>
+        <v>0.81333999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -647,28 +647,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0.875</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="C10" s="3">
-        <v>0.77780000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="D10" s="3">
-        <v>0.82350000000000001</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>0.92077999999999993</v>
+        <v>0.88103999999999993</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>0.82896000000000014</v>
+        <v>0.78527999999999998</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="2"/>
-        <v>0.87227999999999994</v>
+        <v>0.82959999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -676,28 +676,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>0.84209999999999996</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="C11" s="3">
-        <v>0.82050000000000001</v>
+        <v>0.67920000000000003</v>
       </c>
       <c r="D11" s="3">
-        <v>0.83120000000000005</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="0"/>
-        <v>0.86502000000000001</v>
+        <v>0.8529199999999999</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="1"/>
-        <v>0.74586000000000008</v>
+        <v>0.71519999999999995</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.77564</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -705,28 +705,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>0.8851</v>
+        <v>0.84</v>
       </c>
       <c r="C12" s="3">
-        <v>0.80210000000000004</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="D12" s="3">
-        <v>0.84150000000000003</v>
+        <v>0.88109999999999999</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="0"/>
-        <v>0.88375999999999999</v>
+        <v>0.85741999999999996</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="1"/>
-        <v>0.82387999999999995</v>
+        <v>0.84011999999999998</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="2"/>
-        <v>0.85201999999999989</v>
+        <v>0.84755999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -734,28 +734,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>0.93730000000000002</v>
+        <v>0.94259999999999999</v>
       </c>
       <c r="C13" s="3">
-        <v>0.92290000000000005</v>
+        <v>0.94010000000000005</v>
       </c>
       <c r="D13" s="3">
-        <v>0.93010000000000004</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="0"/>
-        <v>0.94464000000000004</v>
+        <v>0.94294000000000011</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="1"/>
-        <v>0.93206000000000011</v>
+        <v>0.93415999999999999</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>0.93829999999999991</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -766,25 +766,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>0.96150000000000002</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0.98040000000000005</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="0"/>
-        <v>0.95578000000000007</v>
+        <v>0.95518000000000003</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>0.96064000000000005</v>
+        <v>0.95665999999999995</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>0.95708000000000004</v>
+        <v>0.95540000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>14</v>
@@ -809,11 +809,11 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="1"/>
-        <v>0.99199999999999999</v>
+        <v>0.93925999999999998</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="2"/>
-        <v>0.99591999999999992</v>
+        <v>0.9672599999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>0.1429</v>
+        <v>0.8</v>
       </c>
       <c r="D16" s="3">
-        <v>0.25</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
@@ -838,11 +838,11 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="1"/>
-        <v>0.6047800000000001</v>
+        <v>0.47714000000000001</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="2"/>
-        <v>0.71</v>
+        <v>0.61665999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -853,25 +853,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>0.88890000000000002</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
-        <v>0.73333999999999999</v>
+        <v>0.97141999999999995</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="1"/>
-        <v>0.57999999999999996</v>
+        <v>0.85333999999999999</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="2"/>
-        <v>0.64206000000000008</v>
+        <v>0.90117999999999987</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -879,28 +879,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.95920000000000005</v>
       </c>
       <c r="C18" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.95140000000000002</v>
       </c>
       <c r="D18" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.95530000000000004</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="0"/>
-        <v>0.97496000000000005</v>
+        <v>0.97006000000000014</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="1"/>
-        <v>0.96717999999999993</v>
+        <v>0.96053999999999995</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="2"/>
-        <v>0.97104000000000001</v>
+        <v>0.96523999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -908,28 +908,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96709999999999996</v>
+        <v>0.97510000000000008</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="1"/>
-        <v>0.96545999999999987</v>
+        <v>0.95774000000000004</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="2"/>
-        <v>0.96622000000000008</v>
+        <v>0.96614</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -937,28 +937,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>0.91910000000000003</v>
+        <v>0.93269999999999997</v>
       </c>
       <c r="C20" s="3">
-        <v>0.88959999999999995</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="D20" s="3">
-        <v>0.90410000000000001</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="0"/>
-        <v>0.93515999999999999</v>
+        <v>0.92477999999999994</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="1"/>
-        <v>0.90532000000000001</v>
+        <v>0.89702000000000004</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="2"/>
-        <v>0.91998000000000002</v>
+        <v>0.91067999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -982,13 +982,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.90380000000000005</v>
+        <v>0.86829999999999996</v>
       </c>
       <c r="C25" s="1">
-        <v>0.89259999999999995</v>
+        <v>0.86480000000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>0.89810000000000001</v>
+        <v>0.86650000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -996,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1010,13 +1010,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>0.8125</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="C27" s="1">
-        <v>0.92859999999999998</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D27" s="1">
-        <v>0.86670000000000003</v>
+        <v>0.7742</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1027,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>0.96</v>
+        <v>0.9355</v>
       </c>
       <c r="D28" s="1">
-        <v>0.97960000000000003</v>
+        <v>0.9667</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1038,13 +1038,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>0.9375</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="D29" s="1">
-        <v>0.88239999999999996</v>
+        <v>0.89549999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>0.93879999999999997</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="C31" s="1">
-        <v>0.82140000000000002</v>
+        <v>0.74070000000000003</v>
       </c>
       <c r="D31" s="1">
-        <v>0.87619999999999998</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>0.93020000000000003</v>
+        <v>0.84850000000000003</v>
       </c>
       <c r="C32" s="1">
-        <v>0.72729999999999995</v>
+        <v>0.6512</v>
       </c>
       <c r="D32" s="1">
-        <v>0.81630000000000003</v>
+        <v>0.73680000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,13 +1094,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>0.86209999999999998</v>
+        <v>0.82179999999999997</v>
       </c>
       <c r="C33" s="1">
-        <v>0.89290000000000003</v>
+        <v>0.77569999999999995</v>
       </c>
       <c r="D33" s="1">
-        <v>0.87719999999999998</v>
+        <v>0.79810000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,13 +1108,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>0.94740000000000002</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="C34" s="1">
-        <v>0.93989999999999996</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D34" s="1">
-        <v>0.94359999999999999</v>
+        <v>0.94910000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>0.9355</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>0.9667</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="D35" s="1">
-        <v>0.95079999999999998</v>
+        <v>0.96550000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>0.96970000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="D37" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1">
-        <v>0.97640000000000005</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="C39" s="1">
-        <v>0.95750000000000002</v>
+        <v>0.96409999999999996</v>
       </c>
       <c r="D39" s="1">
-        <v>0.96689999999999998</v>
+        <v>0.96030000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B40" s="1">
-        <v>0.96230000000000004</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="C40" s="1">
-        <v>0.94440000000000002</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="D40" s="1">
-        <v>0.95330000000000004</v>
+        <v>0.94120000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>0.93899999999999995</v>
+        <v>0.91910000000000003</v>
       </c>
       <c r="C41" s="1">
-        <v>0.91539999999999999</v>
+        <v>0.89270000000000005</v>
       </c>
       <c r="D41" s="1">
-        <v>0.92700000000000005</v>
+        <v>0.90569999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,13 +1236,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.91830000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C46" s="1">
-        <v>0.92910000000000004</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="D46" s="1">
-        <v>0.92369999999999997</v>
+        <v>0.89629999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>0.75</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="D47" s="1">
-        <v>0.85709999999999997</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,13 +1264,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="C48" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="D48" s="1">
-        <v>0.47620000000000001</v>
+        <v>0.71430000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,13 +1278,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>0.9677</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>0.98360000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
+        <v>0.91180000000000005</v>
       </c>
       <c r="C50" s="1">
-        <v>0.87180000000000002</v>
+        <v>0.79490000000000005</v>
       </c>
       <c r="D50" s="1">
-        <v>0.93149999999999999</v>
+        <v>0.84930000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,13 +1320,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>0.89090000000000003</v>
+        <v>0.86539999999999995</v>
       </c>
       <c r="C52" s="1">
-        <v>0.83050000000000002</v>
+        <v>0.80359999999999998</v>
       </c>
       <c r="D52" s="1">
-        <v>0.85960000000000003</v>
+        <v>0.83330000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,13 +1334,13 @@
         <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>0.88890000000000002</v>
+        <v>0.8095</v>
       </c>
       <c r="C53" s="1">
-        <v>0.76190000000000002</v>
+        <v>0.72340000000000004</v>
       </c>
       <c r="D53" s="1">
-        <v>0.82050000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1348,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>0.875</v>
+        <v>0.8851</v>
       </c>
       <c r="C54" s="1">
-        <v>0.82799999999999996</v>
+        <v>0.79379999999999995</v>
       </c>
       <c r="D54" s="1">
-        <v>0.8508</v>
+        <v>0.83699999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,13 +1362,13 @@
         <v>12</v>
       </c>
       <c r="B55" s="1">
-        <v>0.94269999999999998</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="C55" s="1">
-        <v>0.91879999999999995</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="D55" s="1">
-        <v>0.93059999999999998</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1376,13 @@
         <v>13</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1418,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
-        <v>0.57140000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="1">
-        <v>0.99590000000000001</v>
+        <v>0.98350000000000004</v>
       </c>
       <c r="C60" s="1">
-        <v>0.97570000000000001</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D60" s="1">
-        <v>0.98570000000000002</v>
+        <v>0.96750000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,10 +1449,10 @@
         <v>0.94589999999999996</v>
       </c>
       <c r="C61" s="1">
-        <v>0.97219999999999995</v>
+        <v>0.875</v>
       </c>
       <c r="D61" s="1">
-        <v>0.95889999999999997</v>
+        <v>0.90910000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,13 +1460,13 @@
         <v>19</v>
       </c>
       <c r="B62" s="1">
-        <v>0.94369999999999998</v>
+        <v>0.92679999999999996</v>
       </c>
       <c r="C62" s="1">
-        <v>0.91249999999999998</v>
+        <v>0.88790000000000002</v>
       </c>
       <c r="D62" s="1">
-        <v>0.92779999999999996</v>
+        <v>0.90690000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,13 +1490,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.86699999999999999</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="C67" s="1">
-        <v>0.85960000000000003</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="D67" s="1">
-        <v>0.86319999999999997</v>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="1">
-        <v>0.91669999999999996</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="C69" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="D69" s="1">
-        <v>0.6875</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>0.95450000000000002</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D70" s="1">
-        <v>0.97670000000000001</v>
+        <v>0.98109999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="1">
-        <v>0.94740000000000002</v>
+        <v>0.95350000000000001</v>
       </c>
       <c r="C71" s="1">
-        <v>0.8</v>
+        <v>0.85419999999999996</v>
       </c>
       <c r="D71" s="1">
-        <v>0.86750000000000005</v>
+        <v>0.90110000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="D72" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,13 +1574,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="1">
-        <v>0.92190000000000005</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="C73" s="1">
-        <v>0.85509999999999997</v>
+        <v>0.87719999999999998</v>
       </c>
       <c r="D73" s="1">
-        <v>0.88719999999999999</v>
+        <v>0.90090000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="1">
-        <v>0.79549999999999998</v>
+        <v>0.82050000000000001</v>
       </c>
       <c r="C74" s="1">
-        <v>0.68630000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="D74" s="1">
-        <v>0.73680000000000001</v>
+        <v>0.81010000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="B75" s="1">
-        <v>0.89229999999999998</v>
+        <v>0.87060000000000004</v>
       </c>
       <c r="C75" s="1">
-        <v>0.79449999999999998</v>
+        <v>0.82220000000000004</v>
       </c>
       <c r="D75" s="1">
-        <v>0.84060000000000001</v>
+        <v>0.84570000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,13 +1616,13 @@
         <v>12</v>
       </c>
       <c r="B76" s="1">
-        <v>0.9375</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="C76" s="1">
-        <v>0.9375</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="D76" s="1">
-        <v>0.9375</v>
+        <v>0.95650000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,13 +1630,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1">
-        <v>0.88890000000000002</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.96150000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>0.97960000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>0.5</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="D79" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.44440000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,13 +1686,13 @@
         <v>17</v>
       </c>
       <c r="B81" s="1">
-        <v>0.97619999999999996</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="C81" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.95930000000000004</v>
       </c>
       <c r="D81" s="1">
-        <v>0.98009999999999997</v>
+        <v>0.96719999999999995</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,13 +1700,13 @@
         <v>18</v>
       </c>
       <c r="B82" s="1">
-        <v>0.92730000000000001</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>0.91069999999999995</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>0.91890000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,13 +1714,13 @@
         <v>19</v>
       </c>
       <c r="B83" s="1">
-        <v>0.92610000000000003</v>
+        <v>0.92390000000000005</v>
       </c>
       <c r="C83" s="1">
-        <v>0.89419999999999999</v>
+        <v>0.90229999999999999</v>
       </c>
       <c r="D83" s="1">
-        <v>0.90990000000000004</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,13 +1744,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="1">
-        <v>0.91800000000000004</v>
+        <v>0.86350000000000005</v>
       </c>
       <c r="C88" s="1">
-        <v>0.91090000000000004</v>
+        <v>0.8498</v>
       </c>
       <c r="D88" s="1">
-        <v>0.91439999999999999</v>
+        <v>0.85660000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="1">
-        <v>0.84619999999999995</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="C90" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="D90" s="1">
-        <v>0.78569999999999995</v>
+        <v>0.59260000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,13 +1800,13 @@
         <v>7</v>
       </c>
       <c r="B92" s="1">
-        <v>0.92859999999999998</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="C92" s="1">
-        <v>0.90700000000000003</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="D92" s="1">
-        <v>0.91759999999999997</v>
+        <v>0.86839999999999995</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,13 +1828,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="1">
-        <v>0.97729999999999995</v>
+        <v>0.87760000000000005</v>
       </c>
       <c r="C94" s="1">
-        <v>0.86</v>
+        <v>0.70489999999999997</v>
       </c>
       <c r="D94" s="1">
-        <v>0.91490000000000005</v>
+        <v>0.78180000000000005</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="B95" s="1">
-        <v>0.86839999999999995</v>
+        <v>0.8387</v>
       </c>
       <c r="C95" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="D95" s="1">
-        <v>0.79520000000000002</v>
+        <v>0.77610000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,13 +1856,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="1">
-        <v>0.90429999999999999</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="C96" s="1">
-        <v>0.80189999999999995</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="D96" s="1">
-        <v>0.85</v>
+        <v>0.87590000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,13 +1870,13 @@
         <v>12</v>
       </c>
       <c r="B97" s="1">
-        <v>0.95830000000000004</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="C97" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.91149999999999998</v>
       </c>
       <c r="D97" s="1">
-        <v>0.94969999999999999</v>
+        <v>0.91859999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1884,13 +1884,13 @@
         <v>13</v>
       </c>
       <c r="B98" s="1">
-        <v>0.95450000000000002</v>
+        <v>0.95</v>
       </c>
       <c r="C98" s="1">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="D98" s="1">
-        <v>0.91300000000000003</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="D100" s="1">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,13 +1926,13 @@
         <v>16</v>
       </c>
       <c r="B101" s="1">
-        <v>0</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>0.70589999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,13 +1940,13 @@
         <v>17</v>
       </c>
       <c r="B102" s="1">
-        <v>0.97230000000000005</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="C102" s="1">
-        <v>0.9647</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="D102" s="1">
-        <v>0.96850000000000003</v>
+        <v>0.97589999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,13 +1968,13 @@
         <v>19</v>
       </c>
       <c r="B104" s="1">
-        <v>0.94789999999999996</v>
+        <v>0.9214</v>
       </c>
       <c r="C104" s="1">
-        <v>0.91490000000000005</v>
+        <v>0.88870000000000005</v>
       </c>
       <c r="D104" s="1">
-        <v>0.93110000000000004</v>
+        <v>0.90480000000000005</v>
       </c>
     </row>
   </sheetData>
